--- a/englishhao/稻壳/计算结果为20以内的加减法自动生成表.xlsx
+++ b/englishhao/稻壳/计算结果为20以内的加减法自动生成表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="19100" windowHeight="8110"/>
+    <workbookView windowWidth="28695" windowHeight="13440"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,10 +33,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -83,21 +83,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -105,9 +98,25 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -126,45 +135,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -175,6 +145,36 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -196,26 +196,26 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -228,13 +228,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -246,169 +402,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -474,8 +474,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -501,30 +516,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -535,21 +526,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -568,6 +544,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -576,10 +576,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -588,19 +588,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -609,112 +609,112 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1112,25 +1112,25 @@
   <dimension ref="A1:V19"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScale="74" zoomScaleNormal="74" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="23"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="22.5"/>
   <cols>
-    <col min="1" max="1" width="5.63636363636364" style="2" customWidth="1"/>
+    <col min="1" max="1" width="5.63333333333333" style="2" customWidth="1"/>
     <col min="2" max="4" width="9" style="2" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="4" style="2" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="10.6363636363636" style="2" customWidth="1"/>
-    <col min="7" max="7" width="11.6363636363636" style="2" customWidth="1"/>
-    <col min="8" max="8" width="8.63636363636364" style="2" customWidth="1"/>
+    <col min="6" max="6" width="10.6333333333333" style="2" customWidth="1"/>
+    <col min="7" max="7" width="11.6333333333333" style="2" customWidth="1"/>
+    <col min="8" max="8" width="8.63333333333333" style="2" customWidth="1"/>
     <col min="9" max="12" width="9" style="2" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="10.6363636363636" style="2" customWidth="1"/>
-    <col min="14" max="14" width="11.6363636363636" style="2" customWidth="1"/>
-    <col min="15" max="15" width="8.63636363636364" style="2" customWidth="1"/>
+    <col min="13" max="13" width="10.6333333333333" style="2" customWidth="1"/>
+    <col min="14" max="14" width="11.6333333333333" style="2" customWidth="1"/>
+    <col min="15" max="15" width="8.63333333333333" style="2" customWidth="1"/>
     <col min="16" max="19" width="9" style="2" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="10.6363636363636" style="2" customWidth="1"/>
-    <col min="21" max="21" width="11.6363636363636" style="2" customWidth="1"/>
-    <col min="22" max="22" width="4.81818181818182" style="2" customWidth="1"/>
+    <col min="20" max="20" width="10.6333333333333" style="2" customWidth="1"/>
+    <col min="21" max="21" width="11.6333333333333" style="2" customWidth="1"/>
+    <col min="22" max="22" width="4.81666666666667" style="2" customWidth="1"/>
     <col min="23" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -1186,29 +1186,29 @@
       <c r="U2" s="4"/>
       <c r="V2" s="4"/>
     </row>
-    <row r="3" ht="47" customHeight="1" spans="1:22">
+    <row r="3" ht="45" customHeight="1" spans="1:22">
       <c r="A3" s="5">
         <v>20</v>
       </c>
       <c r="B3" s="6">
         <f ca="1">RANDBETWEEN(1,$A$3)</f>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C3" s="6">
         <f ca="1">RANDBETWEEN(1,$A$3)</f>
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D3" s="6">
         <f ca="1">RANDBETWEEN(0,1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" s="6" t="str">
         <f ca="1">IF(D3=0,"+","-")</f>
-        <v>-</v>
+        <v>+</v>
       </c>
       <c r="F3" s="6" t="str">
         <f ca="1">IF(E3="+",IF((B3+C3)&lt;=A3,B3&amp;"+"&amp;C3&amp;"",IF((INT(B3/2)+C3)&lt;=A3,INT(B3/2)&amp;"+"&amp;C3&amp;"",INT(B3/2)&amp;"+"&amp;INT(C3/2)&amp;"")),IF(B3&gt;C3,B3&amp;"-"&amp;C3&amp;"",C3&amp;"-"&amp;B3&amp;""))</f>
-        <v>15-8</v>
+        <v>6+5</v>
       </c>
       <c r="G3" s="12" t="s">
         <v>2</v>
@@ -1216,11 +1216,11 @@
       <c r="H3" s="6"/>
       <c r="I3" s="6">
         <f ca="1">RANDBETWEEN(1,$A$3)</f>
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="J3" s="6">
         <f ca="1">RANDBETWEEN(1,$A$3)</f>
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="K3" s="6">
         <f ca="1">RANDBETWEEN(0,1)</f>
@@ -1232,7 +1232,7 @@
       </c>
       <c r="M3" s="6" t="str">
         <f ca="1">IF(L3="+",IF((I3+J3)&lt;=A3,I3&amp;"+"&amp;J3&amp;"",IF((INT(I3/2)+J3)&lt;=A3,INT(I3/2)&amp;"+"&amp;J3&amp;"",INT(I3/2)&amp;"+"&amp;INT(J3/2)&amp;"")),IF(I3&gt;J3,I3&amp;"-"&amp;J3&amp;"",J3&amp;"-"&amp;I3&amp;""))</f>
-        <v>10-10</v>
+        <v>18-4</v>
       </c>
       <c r="N3" s="12" t="s">
         <v>2</v>
@@ -1240,7 +1240,7 @@
       <c r="O3" s="6"/>
       <c r="P3" s="6">
         <f ca="1">RANDBETWEEN(1,$A$3)</f>
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="Q3" s="6">
         <f ca="1">RANDBETWEEN(1,$A$3)</f>
@@ -1256,22 +1256,22 @@
       </c>
       <c r="T3" s="6" t="str">
         <f ca="1">IF(S3="+",IF((P3+Q3)&lt;=A3,P3&amp;"+"&amp;Q3&amp;"",IF((INT(P3/2)+Q3)&lt;=A3,INT(P3/2)&amp;"+"&amp;Q3&amp;"",INT(P3/2)&amp;"+"&amp;INT(Q3/2)&amp;"")),IF(P3&gt;Q3,P3&amp;"-"&amp;Q3&amp;"",Q3&amp;"-"&amp;P3&amp;""))</f>
-        <v>19-7</v>
+        <v>20-19</v>
       </c>
       <c r="U3" s="12" t="s">
         <v>2</v>
       </c>
       <c r="V3" s="10"/>
     </row>
-    <row r="4" ht="47" customHeight="1" spans="1:22">
+    <row r="4" ht="45" customHeight="1" spans="1:22">
       <c r="A4" s="5"/>
       <c r="B4" s="6">
         <f ca="1" t="shared" ref="B4:B17" si="0">RANDBETWEEN(1,$A$3)</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C4" s="6">
         <f ca="1" t="shared" ref="C4:C17" si="1">RANDBETWEEN(1,$A$3)</f>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D4" s="6">
         <f ca="1" t="shared" ref="D4:D17" si="2">RANDBETWEEN(0,1)</f>
@@ -1283,7 +1283,7 @@
       </c>
       <c r="F4" s="6" t="str">
         <f ca="1" t="shared" ref="F4:F17" si="4">IF(E4="+",IF((B4+C4)&lt;=A4,B4&amp;"+"&amp;C4&amp;"",IF((INT(B4/2)+C4)&lt;=A4,INT(B4/2)&amp;"+"&amp;C4&amp;"",INT(B4/2)&amp;"+"&amp;INT(C4/2)&amp;"")),IF(B4&gt;C4,B4&amp;"-"&amp;C4&amp;"",C4&amp;"-"&amp;B4&amp;""))</f>
-        <v>9+3</v>
+        <v>9+0</v>
       </c>
       <c r="G4" s="12" t="s">
         <v>2</v>
@@ -1291,23 +1291,23 @@
       <c r="H4" s="6"/>
       <c r="I4" s="6">
         <f ca="1" t="shared" ref="I4:I17" si="5">RANDBETWEEN(1,$A$3)</f>
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="J4" s="6">
         <f ca="1" t="shared" ref="J4:J17" si="6">RANDBETWEEN(1,$A$3)</f>
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="K4" s="6">
         <f ca="1" t="shared" ref="K4:K17" si="7">RANDBETWEEN(0,1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L4" s="6" t="str">
         <f ca="1" t="shared" ref="L4:L17" si="8">IF(K4=0,"+","-")</f>
-        <v>-</v>
+        <v>+</v>
       </c>
       <c r="M4" s="6" t="str">
         <f ca="1" t="shared" ref="M4:M17" si="9">IF(L4="+",IF((I4+J4)&lt;=A4,I4&amp;"+"&amp;J4&amp;"",IF((INT(I4/2)+J4)&lt;=A4,INT(I4/2)&amp;"+"&amp;J4&amp;"",INT(I4/2)&amp;"+"&amp;INT(J4/2)&amp;"")),IF(I4&gt;J4,I4&amp;"-"&amp;J4&amp;"",J4&amp;"-"&amp;I4&amp;""))</f>
-        <v>9-3</v>
+        <v>10+8</v>
       </c>
       <c r="N4" s="12" t="s">
         <v>2</v>
@@ -1315,50 +1315,50 @@
       <c r="O4" s="6"/>
       <c r="P4" s="6">
         <f ca="1" t="shared" ref="P4:P17" si="10">RANDBETWEEN(1,$A$3)</f>
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="Q4" s="6">
         <f ca="1" t="shared" ref="Q4:Q17" si="11">RANDBETWEEN(1,$A$3)</f>
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="R4" s="6">
         <f ca="1" t="shared" ref="R4:R17" si="12">RANDBETWEEN(0,1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S4" s="6" t="str">
         <f ca="1" t="shared" ref="S4:S17" si="13">IF(R4=0,"+","-")</f>
-        <v>-</v>
+        <v>+</v>
       </c>
       <c r="T4" s="6" t="str">
         <f ca="1" t="shared" ref="T4:T17" si="14">IF(S4="+",IF((P4+Q4)&lt;=A4,P4&amp;"+"&amp;Q4&amp;"",IF((INT(P4/2)+Q4)&lt;=A4,INT(P4/2)&amp;"+"&amp;Q4&amp;"",INT(P4/2)&amp;"+"&amp;INT(Q4/2)&amp;"")),IF(P4&gt;Q4,P4&amp;"-"&amp;Q4&amp;"",Q4&amp;"-"&amp;P4&amp;""))</f>
-        <v>20-1</v>
+        <v>6+3</v>
       </c>
       <c r="U4" s="12" t="s">
         <v>2</v>
       </c>
       <c r="V4" s="10"/>
     </row>
-    <row r="5" ht="47" customHeight="1" spans="1:22">
+    <row r="5" ht="45" customHeight="1" spans="1:22">
       <c r="A5" s="5"/>
       <c r="B5" s="6">
         <f ca="1" t="shared" si="0"/>
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C5" s="6">
         <f ca="1" t="shared" si="1"/>
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D5" s="6">
         <f ca="1" t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" s="6" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v>+</v>
+        <v>-</v>
       </c>
       <c r="F5" s="6" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v>2+7</v>
+        <v>17-11</v>
       </c>
       <c r="G5" s="12" t="s">
         <v>2</v>
@@ -1366,11 +1366,11 @@
       <c r="H5" s="6"/>
       <c r="I5" s="6">
         <f ca="1" t="shared" si="5"/>
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="J5" s="6">
         <f ca="1" t="shared" si="6"/>
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="K5" s="6">
         <f ca="1" t="shared" si="7"/>
@@ -1382,7 +1382,7 @@
       </c>
       <c r="M5" s="6" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v>12-3</v>
+        <v>17-6</v>
       </c>
       <c r="N5" s="12" t="s">
         <v>2</v>
@@ -1390,38 +1390,38 @@
       <c r="O5" s="6"/>
       <c r="P5" s="6">
         <f ca="1" t="shared" si="10"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="Q5" s="6">
         <f ca="1" t="shared" si="11"/>
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="R5" s="6">
         <f ca="1" t="shared" si="12"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S5" s="6" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v>-</v>
+        <v>+</v>
       </c>
       <c r="T5" s="6" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v>12-4</v>
+        <v>0+8</v>
       </c>
       <c r="U5" s="12" t="s">
         <v>2</v>
       </c>
       <c r="V5" s="10"/>
     </row>
-    <row r="6" ht="47" customHeight="1" spans="1:22">
+    <row r="6" ht="45" customHeight="1" spans="1:22">
       <c r="A6" s="5"/>
       <c r="B6" s="6">
         <f ca="1" t="shared" si="0"/>
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C6" s="6">
         <f ca="1" t="shared" si="1"/>
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D6" s="6">
         <f ca="1" t="shared" si="2"/>
@@ -1433,7 +1433,7 @@
       </c>
       <c r="F6" s="6" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v>15-9</v>
+        <v>13-2</v>
       </c>
       <c r="G6" s="12" t="s">
         <v>2</v>
@@ -1441,11 +1441,11 @@
       <c r="H6" s="6"/>
       <c r="I6" s="6">
         <f ca="1" t="shared" si="5"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J6" s="6">
         <f ca="1" t="shared" si="6"/>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="K6" s="6">
         <f ca="1" t="shared" si="7"/>
@@ -1457,7 +1457,7 @@
       </c>
       <c r="M6" s="6" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v>0+2</v>
+        <v>2+5</v>
       </c>
       <c r="N6" s="12" t="s">
         <v>2</v>
@@ -1465,7 +1465,7 @@
       <c r="O6" s="6"/>
       <c r="P6" s="6">
         <f ca="1" t="shared" si="10"/>
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="Q6" s="6">
         <f ca="1" t="shared" si="11"/>
@@ -1481,22 +1481,22 @@
       </c>
       <c r="T6" s="6" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v>5+4</v>
+        <v>7+4</v>
       </c>
       <c r="U6" s="12" t="s">
         <v>2</v>
       </c>
       <c r="V6" s="10"/>
     </row>
-    <row r="7" ht="47" customHeight="1" spans="1:22">
+    <row r="7" ht="45" customHeight="1" spans="1:22">
       <c r="A7" s="5"/>
       <c r="B7" s="6">
         <f ca="1" t="shared" si="0"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C7" s="6">
         <f ca="1" t="shared" si="1"/>
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D7" s="6">
         <f ca="1" t="shared" si="2"/>
@@ -1508,7 +1508,7 @@
       </c>
       <c r="F7" s="6" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v>1+2</v>
+        <v>3+6</v>
       </c>
       <c r="G7" s="12" t="s">
         <v>2</v>
@@ -1516,23 +1516,23 @@
       <c r="H7" s="6"/>
       <c r="I7" s="6">
         <f ca="1" t="shared" si="5"/>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J7" s="6">
         <f ca="1" t="shared" si="6"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="K7" s="6">
         <f ca="1" t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L7" s="6" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v>+</v>
+        <v>-</v>
       </c>
       <c r="M7" s="6" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v>9+4</v>
+        <v>20-15</v>
       </c>
       <c r="N7" s="12" t="s">
         <v>2</v>
@@ -1540,38 +1540,38 @@
       <c r="O7" s="6"/>
       <c r="P7" s="6">
         <f ca="1" t="shared" si="10"/>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="Q7" s="6">
         <f ca="1" t="shared" si="11"/>
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="R7" s="6">
         <f ca="1" t="shared" si="12"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S7" s="6" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v>-</v>
+        <v>+</v>
       </c>
       <c r="T7" s="6" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v>8-1</v>
+        <v>2+9</v>
       </c>
       <c r="U7" s="12" t="s">
         <v>2</v>
       </c>
       <c r="V7" s="10"/>
     </row>
-    <row r="8" ht="47" customHeight="1" spans="1:22">
+    <row r="8" ht="45" customHeight="1" spans="1:22">
       <c r="A8" s="5"/>
       <c r="B8" s="6">
         <f ca="1" t="shared" si="0"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C8" s="6">
         <f ca="1" t="shared" si="1"/>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D8" s="6">
         <f ca="1" t="shared" si="2"/>
@@ -1583,7 +1583,7 @@
       </c>
       <c r="F8" s="6" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v>1+5</v>
+        <v>4+6</v>
       </c>
       <c r="G8" s="12" t="s">
         <v>2</v>
@@ -1591,23 +1591,23 @@
       <c r="H8" s="6"/>
       <c r="I8" s="6">
         <f ca="1" t="shared" si="5"/>
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="J8" s="6">
         <f ca="1" t="shared" si="6"/>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="K8" s="6">
         <f ca="1" t="shared" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L8" s="6" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v>-</v>
+        <v>+</v>
       </c>
       <c r="M8" s="6" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v>8-4</v>
+        <v>9+5</v>
       </c>
       <c r="N8" s="12" t="s">
         <v>2</v>
@@ -1615,38 +1615,38 @@
       <c r="O8" s="6"/>
       <c r="P8" s="6">
         <f ca="1" t="shared" si="10"/>
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q8" s="6">
         <f ca="1" t="shared" si="11"/>
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="R8" s="6">
         <f ca="1" t="shared" si="12"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S8" s="6" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v>+</v>
+        <v>-</v>
       </c>
       <c r="T8" s="6" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v>10+9</v>
+        <v>19-9</v>
       </c>
       <c r="U8" s="12" t="s">
         <v>2</v>
       </c>
       <c r="V8" s="10"/>
     </row>
-    <row r="9" ht="47" customHeight="1" spans="1:22">
+    <row r="9" ht="45" customHeight="1" spans="1:22">
       <c r="A9" s="5"/>
       <c r="B9" s="6">
         <f ca="1" t="shared" si="0"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C9" s="6">
         <f ca="1" t="shared" si="1"/>
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D9" s="6">
         <f ca="1" t="shared" si="2"/>
@@ -1658,7 +1658,7 @@
       </c>
       <c r="F9" s="6" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v>5+5</v>
+        <v>6+4</v>
       </c>
       <c r="G9" s="12" t="s">
         <v>2</v>
@@ -1666,11 +1666,11 @@
       <c r="H9" s="6"/>
       <c r="I9" s="6">
         <f ca="1" t="shared" si="5"/>
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="J9" s="6">
         <f ca="1" t="shared" si="6"/>
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="K9" s="6">
         <f ca="1" t="shared" si="7"/>
@@ -1682,7 +1682,7 @@
       </c>
       <c r="M9" s="6" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v>6+2</v>
+        <v>10+7</v>
       </c>
       <c r="N9" s="12" t="s">
         <v>2</v>
@@ -1690,11 +1690,11 @@
       <c r="O9" s="6"/>
       <c r="P9" s="6">
         <f ca="1" t="shared" si="10"/>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="Q9" s="6">
         <f ca="1" t="shared" si="11"/>
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="R9" s="6">
         <f ca="1" t="shared" si="12"/>
@@ -1706,34 +1706,34 @@
       </c>
       <c r="T9" s="6" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v>7+4</v>
+        <v>9+10</v>
       </c>
       <c r="U9" s="12" t="s">
         <v>2</v>
       </c>
       <c r="V9" s="10"/>
     </row>
-    <row r="10" ht="47" customHeight="1" spans="1:22">
+    <row r="10" ht="45" customHeight="1" spans="1:22">
       <c r="A10" s="5"/>
       <c r="B10" s="6">
         <f ca="1" t="shared" si="0"/>
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C10" s="6">
         <f ca="1" t="shared" si="1"/>
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D10" s="6">
         <f ca="1" t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" s="6" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v>+</v>
+        <v>-</v>
       </c>
       <c r="F10" s="6" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v>5+6</v>
+        <v>8-8</v>
       </c>
       <c r="G10" s="12" t="s">
         <v>2</v>
@@ -1741,11 +1741,11 @@
       <c r="H10" s="6"/>
       <c r="I10" s="6">
         <f ca="1" t="shared" si="5"/>
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="J10" s="6">
         <f ca="1" t="shared" si="6"/>
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="K10" s="6">
         <f ca="1" t="shared" si="7"/>
@@ -1757,7 +1757,7 @@
       </c>
       <c r="M10" s="6" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v>19-8</v>
+        <v>20-10</v>
       </c>
       <c r="N10" s="12" t="s">
         <v>2</v>
@@ -1765,38 +1765,38 @@
       <c r="O10" s="6"/>
       <c r="P10" s="6">
         <f ca="1" t="shared" si="10"/>
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="Q10" s="6">
         <f ca="1" t="shared" si="11"/>
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="R10" s="6">
         <f ca="1" t="shared" si="12"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S10" s="6" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v>+</v>
+        <v>-</v>
       </c>
       <c r="T10" s="6" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v>10+5</v>
+        <v>12-3</v>
       </c>
       <c r="U10" s="12" t="s">
         <v>2</v>
       </c>
       <c r="V10" s="10"/>
     </row>
-    <row r="11" ht="47" customHeight="1" spans="1:22">
+    <row r="11" ht="45" customHeight="1" spans="1:22">
       <c r="A11" s="5"/>
       <c r="B11" s="6">
         <f ca="1" t="shared" si="0"/>
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="C11" s="6">
         <f ca="1" t="shared" si="1"/>
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D11" s="6">
         <f ca="1" t="shared" si="2"/>
@@ -1808,7 +1808,7 @@
       </c>
       <c r="F11" s="6" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v>18-2</v>
+        <v>20-8</v>
       </c>
       <c r="G11" s="12" t="s">
         <v>2</v>
@@ -1816,7 +1816,7 @@
       <c r="H11" s="6"/>
       <c r="I11" s="6">
         <f ca="1" t="shared" si="5"/>
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="J11" s="6">
         <f ca="1" t="shared" si="6"/>
@@ -1832,7 +1832,7 @@
       </c>
       <c r="M11" s="6" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v>7+0</v>
+        <v>1+0</v>
       </c>
       <c r="N11" s="12" t="s">
         <v>2</v>
@@ -1840,11 +1840,11 @@
       <c r="O11" s="6"/>
       <c r="P11" s="6">
         <f ca="1" t="shared" si="10"/>
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="Q11" s="6">
         <f ca="1" t="shared" si="11"/>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R11" s="6">
         <f ca="1" t="shared" si="12"/>
@@ -1856,34 +1856,34 @@
       </c>
       <c r="T11" s="6" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v>18-16</v>
+        <v>20-19</v>
       </c>
       <c r="U11" s="12" t="s">
         <v>2</v>
       </c>
       <c r="V11" s="10"/>
     </row>
-    <row r="12" ht="47" customHeight="1" spans="1:22">
+    <row r="12" ht="45" customHeight="1" spans="1:22">
       <c r="A12" s="5"/>
       <c r="B12" s="6">
         <f ca="1" t="shared" si="0"/>
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C12" s="6">
         <f ca="1" t="shared" si="1"/>
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D12" s="6">
         <f ca="1" t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" s="6" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v>-</v>
+        <v>+</v>
       </c>
       <c r="F12" s="6" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v>8-4</v>
+        <v>6+6</v>
       </c>
       <c r="G12" s="12" t="s">
         <v>2</v>
@@ -1891,23 +1891,23 @@
       <c r="H12" s="6"/>
       <c r="I12" s="6">
         <f ca="1" t="shared" si="5"/>
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="J12" s="6">
         <f ca="1" t="shared" si="6"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="K12" s="6">
         <f ca="1" t="shared" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L12" s="6" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v>-</v>
+        <v>+</v>
       </c>
       <c r="M12" s="6" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v>18-7</v>
+        <v>1+2</v>
       </c>
       <c r="N12" s="12" t="s">
         <v>2</v>
@@ -1915,7 +1915,7 @@
       <c r="O12" s="6"/>
       <c r="P12" s="6">
         <f ca="1" t="shared" si="10"/>
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="Q12" s="6">
         <f ca="1" t="shared" si="11"/>
@@ -1931,34 +1931,34 @@
       </c>
       <c r="T12" s="6" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v>4+1</v>
+        <v>6+1</v>
       </c>
       <c r="U12" s="12" t="s">
         <v>2</v>
       </c>
       <c r="V12" s="10"/>
     </row>
-    <row r="13" ht="47" customHeight="1" spans="1:22">
+    <row r="13" ht="45" customHeight="1" spans="1:22">
       <c r="A13" s="5"/>
       <c r="B13" s="6">
         <f ca="1" t="shared" si="0"/>
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C13" s="6">
         <f ca="1" t="shared" si="1"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D13" s="6">
         <f ca="1" t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" s="6" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v>+</v>
+        <v>-</v>
       </c>
       <c r="F13" s="6" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v>9+3</v>
+        <v>11-4</v>
       </c>
       <c r="G13" s="12" t="s">
         <v>2</v>
@@ -1966,23 +1966,23 @@
       <c r="H13" s="6"/>
       <c r="I13" s="6">
         <f ca="1" t="shared" si="5"/>
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="J13" s="6">
         <f ca="1" t="shared" si="6"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K13" s="6">
         <f ca="1" t="shared" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L13" s="6" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v>-</v>
+        <v>+</v>
       </c>
       <c r="M13" s="6" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v>19-2</v>
+        <v>5+1</v>
       </c>
       <c r="N13" s="12" t="s">
         <v>2</v>
@@ -1990,11 +1990,11 @@
       <c r="O13" s="6"/>
       <c r="P13" s="6">
         <f ca="1" t="shared" si="10"/>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="Q13" s="6">
         <f ca="1" t="shared" si="11"/>
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="R13" s="6">
         <f ca="1" t="shared" si="12"/>
@@ -2006,34 +2006,34 @@
       </c>
       <c r="T13" s="6" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v>3+10</v>
+        <v>1+9</v>
       </c>
       <c r="U13" s="12" t="s">
         <v>2</v>
       </c>
       <c r="V13" s="10"/>
     </row>
-    <row r="14" ht="47" customHeight="1" spans="1:22">
+    <row r="14" ht="45" customHeight="1" spans="1:22">
       <c r="A14" s="5"/>
       <c r="B14" s="6">
         <f ca="1" t="shared" si="0"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C14" s="6">
         <f ca="1" t="shared" si="1"/>
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D14" s="6">
         <f ca="1" t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" s="6" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v>+</v>
+        <v>-</v>
       </c>
       <c r="F14" s="6" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v>1+3</v>
+        <v>14-5</v>
       </c>
       <c r="G14" s="12" t="s">
         <v>2</v>
@@ -2041,11 +2041,11 @@
       <c r="H14" s="6"/>
       <c r="I14" s="6">
         <f ca="1" t="shared" si="5"/>
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="J14" s="6">
         <f ca="1" t="shared" si="6"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K14" s="6">
         <f ca="1" t="shared" si="7"/>
@@ -2057,7 +2057,7 @@
       </c>
       <c r="M14" s="6" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v>4-4</v>
+        <v>13-2</v>
       </c>
       <c r="N14" s="12" t="s">
         <v>2</v>
@@ -2065,38 +2065,38 @@
       <c r="O14" s="6"/>
       <c r="P14" s="6">
         <f ca="1" t="shared" si="10"/>
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="Q14" s="6">
         <f ca="1" t="shared" si="11"/>
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="R14" s="6">
         <f ca="1" t="shared" si="12"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S14" s="6" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v>+</v>
+        <v>-</v>
       </c>
       <c r="T14" s="6" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v>0+9</v>
+        <v>9-3</v>
       </c>
       <c r="U14" s="12" t="s">
         <v>2</v>
       </c>
       <c r="V14" s="10"/>
     </row>
-    <row r="15" ht="47" customHeight="1" spans="1:22">
+    <row r="15" ht="45" customHeight="1" spans="1:22">
       <c r="A15" s="5"/>
       <c r="B15" s="6">
         <f ca="1" t="shared" si="0"/>
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C15" s="6">
         <f ca="1" t="shared" si="1"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D15" s="6">
         <f ca="1" t="shared" si="2"/>
@@ -2108,7 +2108,7 @@
       </c>
       <c r="F15" s="6" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v>8+6</v>
+        <v>4+0</v>
       </c>
       <c r="G15" s="12" t="s">
         <v>2</v>
@@ -2116,23 +2116,23 @@
       <c r="H15" s="6"/>
       <c r="I15" s="6">
         <f ca="1" t="shared" si="5"/>
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="J15" s="6">
         <f ca="1" t="shared" si="6"/>
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="K15" s="6">
         <f ca="1" t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L15" s="6" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v>+</v>
+        <v>-</v>
       </c>
       <c r="M15" s="6" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v>9+0</v>
+        <v>14-4</v>
       </c>
       <c r="N15" s="12" t="s">
         <v>2</v>
@@ -2140,11 +2140,11 @@
       <c r="O15" s="6"/>
       <c r="P15" s="6">
         <f ca="1" t="shared" si="10"/>
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="Q15" s="6">
         <f ca="1" t="shared" si="11"/>
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="R15" s="6">
         <f ca="1" t="shared" si="12"/>
@@ -2156,34 +2156,34 @@
       </c>
       <c r="T15" s="6" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v>12-10</v>
+        <v>6-3</v>
       </c>
       <c r="U15" s="12" t="s">
         <v>2</v>
       </c>
       <c r="V15" s="10"/>
     </row>
-    <row r="16" ht="47" customHeight="1" spans="1:22">
+    <row r="16" ht="45" customHeight="1" spans="1:22">
       <c r="A16" s="5"/>
       <c r="B16" s="6">
         <f ca="1" t="shared" si="0"/>
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C16" s="6">
         <f ca="1" t="shared" si="1"/>
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D16" s="6">
         <f ca="1" t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" s="6" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v>+</v>
+        <v>-</v>
       </c>
       <c r="F16" s="6" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v>6+0</v>
+        <v>13-4</v>
       </c>
       <c r="G16" s="12" t="s">
         <v>2</v>
@@ -2191,23 +2191,23 @@
       <c r="H16" s="6"/>
       <c r="I16" s="6">
         <f ca="1" t="shared" si="5"/>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J16" s="6">
         <f ca="1" t="shared" si="6"/>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K16" s="6">
         <f ca="1" t="shared" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L16" s="6" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v>-</v>
+        <v>+</v>
       </c>
       <c r="M16" s="6" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v>19-7</v>
+        <v>1+9</v>
       </c>
       <c r="N16" s="12" t="s">
         <v>2</v>
@@ -2215,11 +2215,11 @@
       <c r="O16" s="6"/>
       <c r="P16" s="6">
         <f ca="1" t="shared" si="10"/>
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="Q16" s="6">
         <f ca="1" t="shared" si="11"/>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="R16" s="6">
         <f ca="1" t="shared" si="12"/>
@@ -2231,22 +2231,22 @@
       </c>
       <c r="T16" s="6" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v>12-6</v>
+        <v>18-10</v>
       </c>
       <c r="U16" s="12" t="s">
         <v>2</v>
       </c>
       <c r="V16" s="10"/>
     </row>
-    <row r="17" ht="47" customHeight="1" spans="1:22">
+    <row r="17" ht="45" customHeight="1" spans="1:22">
       <c r="A17" s="5"/>
       <c r="B17" s="6">
         <f ca="1" t="shared" si="0"/>
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C17" s="6">
         <f ca="1" t="shared" si="1"/>
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="D17" s="6">
         <f ca="1" t="shared" si="2"/>
@@ -2258,7 +2258,7 @@
       </c>
       <c r="F17" s="6" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v>16-4</v>
+        <v>15-4</v>
       </c>
       <c r="G17" s="12" t="s">
         <v>2</v>
@@ -2266,23 +2266,23 @@
       <c r="H17" s="6"/>
       <c r="I17" s="6">
         <f ca="1" t="shared" si="5"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J17" s="6">
         <f ca="1" t="shared" si="6"/>
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="K17" s="6">
         <f ca="1" t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L17" s="6" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v>+</v>
+        <v>-</v>
       </c>
       <c r="M17" s="6" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v>3+10</v>
+        <v>11-5</v>
       </c>
       <c r="N17" s="12" t="s">
         <v>2</v>
@@ -2290,30 +2290,30 @@
       <c r="O17" s="6"/>
       <c r="P17" s="6">
         <f ca="1" t="shared" si="10"/>
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="Q17" s="6">
         <f ca="1" t="shared" si="11"/>
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="R17" s="6">
         <f ca="1" t="shared" si="12"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S17" s="6" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v>+</v>
+        <v>-</v>
       </c>
       <c r="T17" s="6" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v>7+0</v>
+        <v>16-11</v>
       </c>
       <c r="U17" s="12" t="s">
         <v>2</v>
       </c>
       <c r="V17" s="10"/>
     </row>
-    <row r="18" s="1" customFormat="1" spans="1:22">
+    <row r="18" s="1" customFormat="1" ht="15" customHeight="1" spans="1:22">
       <c r="A18" s="7"/>
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
@@ -2337,7 +2337,7 @@
       <c r="U18" s="8"/>
       <c r="V18" s="11"/>
     </row>
-    <row r="19" customHeight="1" spans="1:22">
+    <row r="19" ht="25" customHeight="1" spans="1:22">
       <c r="A19" s="9" t="s">
         <v>3</v>
       </c>
